--- a/DateBase/orders/Dang Nguyen_2025-5-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-9.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -778,10 +778,143 @@
       <c r="C41" t="str">
         <v>83_布拉格_undefined_Gerbera L._10stems</v>
       </c>
+      <c r="F41" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" t="str">
+        <v>84_堪培拉_undefined_Gerbera L._10stems</v>
+      </c>
+      <c r="F42" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>388_大丽花_dahlia_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>1</v>
+      </c>
+      <c r="C44" t="str">
+        <v>175_火灵鸟_Free Spirit_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F44" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>203_佛罗伊德_Floyd_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F45" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>256_奇迹女神_Miracle Goddess_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F46" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>741_袋鼠爪红_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">460_袋鼠爪黄_Kangaroo Paw
+red /green /orange / yellow_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F49" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" t="str">
+        <v>315_尤加利叶圆叶_Eucalyptus Populus_undefined_1bunch</v>
+      </c>
+      <c r="F51" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" t="str">
+        <v>548_白星花_tweedia white_undefined_1bunch</v>
+      </c>
+      <c r="F52" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>600_康乃馨复古红_vintage red_undefined_20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>2</v>
+      </c>
+      <c r="C54" t="str">
+        <v>646_芍药莎拉_Sarah_undefined_5stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>3</v>
+      </c>
+      <c r="C55" t="str">
+        <v>731_芍药冰点_undefined_undefined_10stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>227_多头卡布奇诺_Cappuccino spray_Rosa rugosa Thunb._10stems</v>
+      </c>
+      <c r="F56" t="str">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L56"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -839,7 +972,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>013237.515166103105510205820201010121214015409041150801451224165541130</v>
+        <v>013237.515166103105510205820201010121214015409041150801451224165541138105610810551515201530106</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen_2025-5-9.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-5-9.xlsx
@@ -974,6 +974,9 @@
       <c r="G2" t="str">
         <v>013237.515166103105510205820201010121214015409041150801451224165541138105610810551515201530106</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
